--- a/Data/PopulationPoland_StatPl.xlsx
+++ b/Data/PopulationPoland_StatPl.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ba6dc8\Work Folders\Desktop\Promotion\Code\Covid-Modelling\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ba6dc8\Work Folders\Desktop\Promotion\Code\VanishingJumps\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,7 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Tabl. 1" sheetId="2" r:id="rId1"/>
-    <sheet name="Pop23" sheetId="3" r:id="rId2"/>
+    <sheet name="Pop21-23" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -850,6 +850,9 @@
     <xf numFmtId="165" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -876,9 +879,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1234,34 +1234,34 @@
     </row>
     <row r="5" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="41" t="s">
+      <c r="D6" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="36" t="s">
+      <c r="E6" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="37"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="36" t="s">
+      <c r="F6" s="38"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
     </row>
     <row r="7" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="40"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="42"/>
+      <c r="A7" s="41"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="43"/>
       <c r="E7" s="5" t="s">
         <v>30</v>
       </c>
@@ -8542,7 +8542,7 @@
       <c r="C2" s="30">
         <v>2022</v>
       </c>
-      <c r="D2" s="45">
+      <c r="D2" s="36">
         <v>2023</v>
       </c>
     </row>
